--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N2">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P2">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q2">
-        <v>35.15397560964171</v>
+        <v>57.139416849526</v>
       </c>
       <c r="R2">
-        <v>35.15397560964171</v>
+        <v>514.254751645734</v>
       </c>
       <c r="S2">
-        <v>0.00897277829564274</v>
+        <v>0.01089138647596793</v>
       </c>
       <c r="T2">
-        <v>0.00897277829564274</v>
+        <v>0.01162619163428776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.412828713565324</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N3">
-        <v>0.412828713565324</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O3">
-        <v>0.1655762211154184</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P3">
-        <v>0.1655762211154184</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q3">
-        <v>6.975667024265355</v>
+        <v>0.6018931074933332</v>
       </c>
       <c r="R3">
-        <v>6.975667024265355</v>
+        <v>5.417037967439999</v>
       </c>
       <c r="S3">
-        <v>0.001780484641850638</v>
+        <v>0.0001147272900630869</v>
       </c>
       <c r="T3">
-        <v>0.001780484641850638</v>
+        <v>0.0001224675538692079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.08045631724567</v>
+        <v>0.509813</v>
       </c>
       <c r="N4">
-        <v>2.08045631724567</v>
+        <v>1.019626</v>
       </c>
       <c r="O4">
-        <v>0.8344237788845816</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P4">
-        <v>0.8344237788845816</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q4">
-        <v>2787.233212037986</v>
+        <v>12.603488395831</v>
       </c>
       <c r="R4">
-        <v>2787.233212037986</v>
+        <v>75.62093037498599</v>
       </c>
       <c r="S4">
-        <v>0.7114195545783376</v>
+        <v>0.002402360238044873</v>
       </c>
       <c r="T4">
-        <v>0.7114195545783376</v>
+        <v>0.001709626260698864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H5">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I5">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J5">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412828713565324</v>
+        <v>2.311298</v>
       </c>
       <c r="N5">
-        <v>0.412828713565324</v>
+        <v>6.933894</v>
       </c>
       <c r="O5">
-        <v>0.1655762211154184</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P5">
-        <v>0.1655762211154184</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q5">
-        <v>553.0757323737231</v>
+        <v>3370.521925609396</v>
       </c>
       <c r="R5">
-        <v>553.0757323737231</v>
+        <v>30334.69733048456</v>
       </c>
       <c r="S5">
-        <v>0.1411682701949805</v>
+        <v>0.6424576753068507</v>
       </c>
       <c r="T5">
-        <v>0.1411682701949805</v>
+        <v>0.6858021305659945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H6">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J6">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.08045631724567</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N6">
-        <v>2.08045631724567</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O6">
-        <v>0.8344237788845816</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P6">
-        <v>0.8344237788845816</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q6">
-        <v>114.1117169858802</v>
+        <v>35.50428106436444</v>
       </c>
       <c r="R6">
-        <v>114.1117169858802</v>
+        <v>319.53852957928</v>
       </c>
       <c r="S6">
-        <v>0.02912612641082356</v>
+        <v>0.006767497253983457</v>
       </c>
       <c r="T6">
-        <v>0.02912612641082356</v>
+        <v>0.007224077497657194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.412828713565324</v>
+        <v>0.509813</v>
       </c>
       <c r="N7">
-        <v>0.412828713565324</v>
+        <v>1.019626</v>
       </c>
       <c r="O7">
-        <v>0.1655762211154184</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P7">
-        <v>0.1655762211154184</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q7">
-        <v>22.64339459353736</v>
+        <v>743.4506041456802</v>
       </c>
       <c r="R7">
-        <v>22.64339459353736</v>
+        <v>4460.703624874081</v>
       </c>
       <c r="S7">
-        <v>0.005779549994705049</v>
+        <v>0.1417096691215116</v>
       </c>
       <c r="T7">
-        <v>0.005779549994705049</v>
+        <v>0.1008468954357368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H8">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I8">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J8">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N8">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P8">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q8">
-        <v>290.0586875471292</v>
+        <v>138.90852442742</v>
       </c>
       <c r="R8">
-        <v>290.0586875471292</v>
+        <v>1250.17671984678</v>
       </c>
       <c r="S8">
-        <v>0.07403521937278908</v>
+        <v>0.02647745650484381</v>
       </c>
       <c r="T8">
-        <v>0.07403521937278908</v>
+        <v>0.02826380130693834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H9">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I9">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J9">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.412828713565324</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N9">
-        <v>0.412828713565324</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O9">
-        <v>0.1655762211154184</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P9">
-        <v>0.1655762211154184</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q9">
-        <v>57.55687050284153</v>
+        <v>1.463229553866667</v>
       </c>
       <c r="R9">
-        <v>57.55687050284153</v>
+        <v>13.1690659848</v>
       </c>
       <c r="S9">
-        <v>0.01469094261621353</v>
+        <v>0.0002789072666980187</v>
       </c>
       <c r="T9">
-        <v>0.01469094261621353</v>
+        <v>0.0002977242004938027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.4702174927483</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H10">
-        <v>20.4702174927483</v>
+        <v>180.29937</v>
       </c>
       <c r="I10">
-        <v>0.01302707389465733</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J10">
-        <v>0.01302707389465733</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.08045631724567</v>
+        <v>0.509813</v>
       </c>
       <c r="N10">
-        <v>2.08045631724567</v>
+        <v>1.019626</v>
       </c>
       <c r="O10">
-        <v>0.8344237788845816</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P10">
-        <v>0.8344237788845816</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q10">
-        <v>42.58739329818102</v>
+        <v>30.63965423927</v>
       </c>
       <c r="R10">
-        <v>42.58739329818102</v>
+        <v>183.83792543562</v>
       </c>
       <c r="S10">
-        <v>0.01087010022698865</v>
+        <v>0.005840247139531091</v>
       </c>
       <c r="T10">
-        <v>0.01087010022698865</v>
+        <v>0.004156179294259229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>280.168911</v>
+      </c>
+      <c r="H11">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J11">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.311298</v>
+      </c>
+      <c r="N11">
+        <v>6.933894</v>
+      </c>
+      <c r="O11">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P11">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q11">
+        <v>647.5538436564782</v>
+      </c>
+      <c r="R11">
+        <v>5827.984592908303</v>
+      </c>
+      <c r="S11">
+        <v>0.1234307167298248</v>
+      </c>
+      <c r="T11">
+        <v>0.1317581714159948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>280.168911</v>
+      </c>
+      <c r="H12">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J12">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P12">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q12">
+        <v>6.821179086480001</v>
+      </c>
+      <c r="R12">
+        <v>61.39061177832</v>
+      </c>
+      <c r="S12">
+        <v>0.001300189987032741</v>
+      </c>
+      <c r="T12">
+        <v>0.001387909425818199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="H11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="I11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="J11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="N11">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="O11">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="P11">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="Q11">
-        <v>8.450693553933673</v>
-      </c>
-      <c r="R11">
-        <v>8.450693553933673</v>
-      </c>
-      <c r="S11">
-        <v>0.002156973667668677</v>
-      </c>
-      <c r="T11">
-        <v>0.002156973667668677</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>280.168911</v>
+      </c>
+      <c r="H13">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J13">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.509813</v>
+      </c>
+      <c r="N13">
+        <v>1.019626</v>
+      </c>
+      <c r="O13">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P13">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q13">
+        <v>142.833753023643</v>
+      </c>
+      <c r="R13">
+        <v>857.002518141858</v>
+      </c>
+      <c r="S13">
+        <v>0.02722564722860581</v>
+      </c>
+      <c r="T13">
+        <v>0.01937497995905405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>20.472042</v>
+      </c>
+      <c r="H14">
+        <v>40.944084</v>
+      </c>
+      <c r="I14">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J14">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.311298</v>
+      </c>
+      <c r="N14">
+        <v>6.933894</v>
+      </c>
+      <c r="O14">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P14">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q14">
+        <v>47.31698973051601</v>
+      </c>
+      <c r="R14">
+        <v>283.901938383096</v>
+      </c>
+      <c r="S14">
+        <v>0.009019126383309088</v>
+      </c>
+      <c r="T14">
+        <v>0.006418410973208576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20.472042</v>
+      </c>
+      <c r="H15">
+        <v>40.944084</v>
+      </c>
+      <c r="I15">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J15">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P15">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q15">
+        <v>0.49842598256</v>
+      </c>
+      <c r="R15">
+        <v>2.99055589536</v>
+      </c>
+      <c r="S15">
+        <v>9.500534490964178E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.76100236725791E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>20.472042</v>
+      </c>
+      <c r="H16">
+        <v>40.944084</v>
+      </c>
+      <c r="I16">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J16">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.509813</v>
+      </c>
+      <c r="N16">
+        <v>1.019626</v>
+      </c>
+      <c r="O16">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P16">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q16">
+        <v>10.436913148146</v>
+      </c>
+      <c r="R16">
+        <v>41.747652592584</v>
+      </c>
+      <c r="S16">
+        <v>0.001989387728823352</v>
+      </c>
+      <c r="T16">
+        <v>0.0009438244523162261</v>
       </c>
     </row>
   </sheetData>
